--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t>V_MAX</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>El sensor va desde -40 a 130 grados</t>
+  </si>
+  <si>
+    <t>Punto1</t>
+  </si>
+  <si>
+    <t>Punto2</t>
+  </si>
+  <si>
+    <t>Punto3</t>
+  </si>
+  <si>
+    <t>Punto4</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>inf -</t>
+  </si>
+  <si>
+    <t>Aceleracion</t>
+  </si>
+  <si>
+    <t>Asumo que viene un dato entre 0 y 100%</t>
   </si>
 </sst>
 </file>
@@ -570,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,6 +842,237 @@
         <v>26</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="C24">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Principal" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -115,16 +116,19 @@
     <t>Punto4</t>
   </si>
   <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>inf -</t>
-  </si>
-  <si>
     <t>Aceleracion</t>
   </si>
   <si>
     <t>Asumo que viene un dato entre 0 y 100%</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Tabla</t>
   </si>
 </sst>
 </file>
@@ -165,78 +169,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -246,7 +188,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -257,7 +199,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -267,13 +209,79 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -285,8 +293,8 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -311,6 +319,3915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Func mu Temperatura</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_VLOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_LOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_MEDIUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_VHIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_CRITICAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367999600"/>
+        <c:axId val="368000720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367999600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368000720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="368000720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367999600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Func mu Aceleracion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_STEADY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_LOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_MEDIUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Principal!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_VHIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Principal!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Principal!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366336128"/>
+        <c:axId val="366329968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366336128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366329968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366329968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366336128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_VLOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T_LOW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_MEDIUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_VHIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_CRITICAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365316368"/>
+        <c:axId val="420159824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="365316368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420159824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420159824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365316368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,10 +4517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,379 +4619,700 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>45</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
       <c r="B21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>-40</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>-40</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
         <v>85</v>
-      </c>
-      <c r="C24">
-        <v>95</v>
-      </c>
-      <c r="D24">
-        <v>95</v>
-      </c>
-      <c r="E24">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
+      </c>
+      <c r="E25">
         <v>95</v>
       </c>
-      <c r="C25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+      <c r="E26">
         <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>95</v>
+      </c>
+      <c r="C27">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>10</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>45</v>
-      </c>
-      <c r="E32">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>75</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>85</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>Principal!$B$22</f>
+        <v>-40</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>Principal!$C$22</f>
+        <v>-40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>Principal!$D$22</f>
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>Principal!$E$22</f>
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>Principal!$B$23</f>
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>Principal!$C$23</f>
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>Principal!$D$23</f>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>Principal!$E$23</f>
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>Principal!$B$24</f>
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>Principal!$C$24</f>
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>Principal!$D$24</f>
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>Principal!$E$24</f>
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>Principal!$B$25</f>
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>Principal!$C$25</f>
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>Principal!$D$25</f>
+        <v>85</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>Principal!$E$25</f>
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>Principal!$B$26</f>
+        <v>85</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>Principal!$C$26</f>
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f>Principal!$D$26</f>
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>Principal!$E$26</f>
+        <v>105</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f>Principal!$B$27</f>
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f>Principal!$C$27</f>
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f>Principal!$D$27</f>
+        <v>130</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>Principal!$E$27</f>
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>Tabla</t>
+  </si>
+  <si>
+    <t>Points in HEX:</t>
+  </si>
+  <si>
+    <t>I need the points in HEX expanded from 00 to FF</t>
+  </si>
+  <si>
+    <t>Points extracted from the software:</t>
+  </si>
+  <si>
+    <t>8e</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>bf</t>
   </si>
 </sst>
 </file>
@@ -4517,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4941,7 +4974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4958,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -4975,7 +5008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4992,7 +5025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -5007,6 +5040,380 @@
       </c>
       <c r="E36">
         <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="str">
+        <f>DEC2HEX( 60+(255*B22/170))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ref="C40:E40" si="0">DEC2HEX( 60+(255*C22/170))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>7F</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>70</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:E41" si="1">DEC2HEX( 60+(255*B23/170))</f>
+        <v>70</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>7F</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>8E</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>9D</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:E42" si="2">DEC2HEX( 60+(255*B24/170))</f>
+        <v>8E</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>9D</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:E43" si="3">DEC2HEX( 60+(255*B25/170))</f>
+        <v>AC</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v>BB</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>BB</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>CA</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" ref="B44:E44" si="4">DEC2HEX( 60+(255*B26/170))</f>
+        <v>BB</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>D9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" ref="B45:E45" si="5">DEC2HEX( 60+(255*B27/170))</f>
+        <v>CA</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="5"/>
+        <v>D9</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="5"/>
+        <v>FF</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="5"/>
+        <v>FF</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="str">
+        <f>DEC2HEX( (255*B32/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ref="C47:E47" si="6">DEC2HEX( (255*C32/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" ref="B48:E48" si="7">DEC2HEX( (255*B33/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" ref="B49:E49" si="8">DEC2HEX( (255*B34/100))</f>
+        <v>19</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="8"/>
+        <v>8C</v>
+      </c>
+      <c r="G49">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:E50" si="9">DEC2HEX( (255*B35/100))</f>
+        <v>72</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="9"/>
+        <v>8C</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="9"/>
+        <v>BF</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="9"/>
+        <v>D8</v>
+      </c>
+      <c r="G50">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" ref="B51:E51" si="10">DEC2HEX( (255*B36/100))</f>
+        <v>BF</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="10"/>
+        <v>D8</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="10"/>
+        <v>FF</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="10"/>
+        <v>FF</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -930,11 +930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367999600"/>
-        <c:axId val="368000720"/>
+        <c:axId val="215786384"/>
+        <c:axId val="215786944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367999600"/>
+        <c:axId val="215786384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-50"/>
@@ -992,13 +992,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368000720"/>
+        <c:crossAx val="215786944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368000720"/>
+        <c:axId val="215786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1057,7 +1057,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367999600"/>
+        <c:crossAx val="215786384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1601,11 +1601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366336128"/>
-        <c:axId val="366329968"/>
+        <c:axId val="215791984"/>
+        <c:axId val="215792544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366336128"/>
+        <c:axId val="215791984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1663,13 +1663,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366329968"/>
+        <c:crossAx val="215792544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366329968"/>
+        <c:axId val="215792544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1728,7 +1728,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366336128"/>
+        <c:crossAx val="215791984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1793,7 +1793,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2321,11 +2320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365316368"/>
-        <c:axId val="420159824"/>
+        <c:axId val="215798144"/>
+        <c:axId val="215798704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365316368"/>
+        <c:axId val="215798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,12 +2381,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420159824"/>
+        <c:crossAx val="215798704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420159824"/>
+        <c:axId val="215798704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2443,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365316368"/>
+        <c:crossAx val="215798144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4552,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>bf</t>
+  </si>
+  <si>
+    <t>pero es feo numero, asi que lo offseteo con +50</t>
   </si>
 </sst>
 </file>
@@ -930,11 +933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215786384"/>
-        <c:axId val="215786944"/>
+        <c:axId val="294552624"/>
+        <c:axId val="294553184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215786384"/>
+        <c:axId val="294552624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-50"/>
@@ -992,13 +995,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215786944"/>
+        <c:crossAx val="294553184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215786944"/>
+        <c:axId val="294553184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1057,7 +1060,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215786384"/>
+        <c:crossAx val="294552624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1601,11 +1604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215791984"/>
-        <c:axId val="215792544"/>
+        <c:axId val="294558224"/>
+        <c:axId val="294558784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215791984"/>
+        <c:axId val="294558224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1663,13 +1666,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215792544"/>
+        <c:crossAx val="294558784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215792544"/>
+        <c:axId val="294558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1728,7 +1731,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215791984"/>
+        <c:crossAx val="294558224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1793,6 +1796,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2320,11 +2324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215798144"/>
-        <c:axId val="215798704"/>
+        <c:axId val="294564384"/>
+        <c:axId val="294564944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215798144"/>
+        <c:axId val="294564384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,12 +2385,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215798704"/>
+        <c:crossAx val="294564944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215798704"/>
+        <c:axId val="294564944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2447,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215798144"/>
+        <c:crossAx val="294564384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4551,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4802,6 +4806,11 @@
       </c>
       <c r="B18" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Temperatura</t>
   </si>
   <si>
-    <t>El sensor va desde -40 a 130 grados</t>
-  </si>
-  <si>
     <t>Punto1</t>
   </si>
   <si>
@@ -140,21 +137,6 @@
     <t>Points extracted from the software:</t>
   </si>
   <si>
-    <t>8e</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
     <t>ff</t>
   </si>
   <si>
@@ -164,7 +146,28 @@
     <t>bf</t>
   </si>
   <si>
-    <t>pero es feo numero, asi que lo offseteo con +50</t>
+    <t>El sensor va desde -40 a 130 grados pero es feo numero</t>
+  </si>
+  <si>
+    <t>asi que lo offseteo con +50 para fuzzy</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -478,16 +481,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,16 +563,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,16 +645,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,16 +727,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,16 +809,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,16 +891,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +943,7 @@
         <c:axId val="294552624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1877,16 +1880,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,16 +1954,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,16 +2036,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,16 +2118,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,16 +2200,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,16 +2282,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4555,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4805,26 +4808,26 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4846,16 +4849,16 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>-40</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>-40</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E22">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4863,16 +4866,16 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E23">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4880,16 +4883,16 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4897,16 +4900,16 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E25">
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4914,16 +4917,16 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D26">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4931,38 +4934,38 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C27">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E27">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -5052,13 +5055,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" t="s">
         <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,32 +5069,32 @@
         <v>8</v>
       </c>
       <c r="B40" t="str">
-        <f>DEC2HEX( 60+(255*B22/170))</f>
-        <v>0</v>
+        <f>DEC2HEX( (255*B22/190))</f>
+        <v>D</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:E40" si="0">DEC2HEX( 60+(255*C22/170))</f>
-        <v>0</v>
+        <f t="shared" ref="C40:E40" si="0">DEC2HEX( (255*C22/190))</f>
+        <v>D</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>7F</v>
       </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="G40" t="s">
+        <v>45</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5099,8 +5102,8 @@
         <v>9</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:E41" si="1">DEC2HEX( 60+(255*B23/170))</f>
-        <v>70</v>
+        <f t="shared" ref="B41:E45" si="1">DEC2HEX( (255*B23/190))</f>
+        <v>72</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
@@ -5108,23 +5111,23 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>8E</v>
+        <v>8C</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
-        <v>9D</v>
+        <v>9A</v>
       </c>
       <c r="G41">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5132,32 +5135,32 @@
         <v>10</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" ref="B42:E42" si="2">DEC2HEX( 60+(255*B24/170))</f>
-        <v>8E</v>
+        <f t="shared" si="1"/>
+        <v>8C</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
-        <v>9D</v>
+        <f t="shared" si="1"/>
+        <v>9A</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>AC</v>
+        <f t="shared" si="1"/>
+        <v>A7</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>BB</v>
+        <f t="shared" si="1"/>
+        <v>B5</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5165,32 +5168,32 @@
         <v>11</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:E43" si="3">DEC2HEX( 60+(255*B25/170))</f>
-        <v>AC</v>
+        <f t="shared" si="1"/>
+        <v>A7</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="3"/>
-        <v>BB</v>
+        <f t="shared" si="1"/>
+        <v>B5</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
-        <v>BB</v>
+        <f t="shared" si="1"/>
+        <v>B5</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>CA</v>
+        <f t="shared" si="1"/>
+        <v>C2</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5198,32 +5201,32 @@
         <v>12</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" ref="B44:E44" si="4">DEC2HEX( 60+(255*B26/170))</f>
-        <v>BB</v>
+        <f t="shared" si="1"/>
+        <v>B5</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="4"/>
-        <v>CA</v>
+        <f t="shared" si="1"/>
+        <v>C2</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="4"/>
-        <v>CA</v>
+        <f t="shared" si="1"/>
+        <v>C2</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
-        <v>D9</v>
+        <f t="shared" si="1"/>
+        <v>D0</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5231,29 +5234,29 @@
         <v>13</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" ref="B45:E45" si="5">DEC2HEX( 60+(255*B27/170))</f>
-        <v>CA</v>
+        <f t="shared" si="1"/>
+        <v>C2</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="5"/>
-        <v>D9</v>
+        <f t="shared" si="1"/>
+        <v>D0</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="5"/>
-        <v>FF</v>
+        <f t="shared" si="1"/>
+        <v>F1</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="5"/>
-        <v>FF</v>
+        <f t="shared" si="1"/>
+        <v>F1</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5268,15 +5271,15 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:E47" si="6">DEC2HEX( (255*C32/100))</f>
+        <f t="shared" ref="C47:E47" si="2">DEC2HEX( (255*C32/100))</f>
         <v>0</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G47">
@@ -5289,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5297,19 +5300,19 @@
         <v>15</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:E48" si="7">DEC2HEX( (255*B33/100))</f>
+        <f t="shared" ref="B48:E48" si="3">DEC2HEX( (255*B33/100))</f>
         <v>0</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="G48">
@@ -5330,32 +5333,32 @@
         <v>16</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:E49" si="8">DEC2HEX( (255*B34/100))</f>
+        <f t="shared" ref="B49:E49" si="4">DEC2HEX( (255*B34/100))</f>
         <v>19</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8C</v>
       </c>
       <c r="G49">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I49">
         <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5363,32 +5366,32 @@
         <v>17</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" ref="B50:E50" si="9">DEC2HEX( (255*B35/100))</f>
+        <f t="shared" ref="B50:E50" si="5">DEC2HEX( (255*B35/100))</f>
         <v>72</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8C</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>BF</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>D8</v>
       </c>
       <c r="G50">
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5396,29 +5399,29 @@
         <v>18</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" ref="B51:E51" si="10">DEC2HEX( (255*B36/100))</f>
+        <f t="shared" ref="B51:E51" si="6">DEC2HEX( (255*B36/100))</f>
         <v>BF</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>D8</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5449,16 +5452,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>Principal!$B$22</f>
-        <v>-40</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5467,7 +5470,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>Principal!$C$22</f>
-        <v>-40</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5476,7 +5479,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>Principal!$D$22</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5485,7 +5488,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>Principal!$E$22</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5496,16 +5499,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>Principal!$B$23</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5514,7 +5517,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>Principal!$C$23</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5523,7 +5526,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>Principal!$D$23</f>
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5532,7 +5535,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>Principal!$E$23</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5543,16 +5546,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>Principal!$B$24</f>
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5561,7 +5564,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>Principal!$C$24</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5570,7 +5573,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>Principal!$D$24</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5579,7 +5582,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <f>Principal!$E$24</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5590,16 +5593,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>Principal!$B$25</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5608,7 +5611,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>Principal!$C$25</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5617,7 +5620,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>Principal!$D$25</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5626,7 +5629,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>Principal!$E$25</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5637,16 +5640,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>Principal!$B$26</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5655,7 +5658,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>Principal!$C$26</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5664,7 +5667,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <f>Principal!$D$26</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5673,7 +5676,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>Principal!$E$26</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5684,16 +5687,16 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <f>Principal!$B$27</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5702,7 +5705,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <f>Principal!$C$27</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5711,7 +5714,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <f>Principal!$D$27</f>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5720,7 +5723,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37">
         <f>Principal!$E$27</f>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C37">
         <v>0</v>

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -137,37 +137,10 @@
     <t>Points extracted from the software:</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>0a</t>
-  </si>
-  <si>
-    <t>bf</t>
-  </si>
-  <si>
     <t>El sensor va desde -40 a 130 grados pero es feo numero</t>
   </si>
   <si>
     <t>asi que lo offseteo con +50 para fuzzy</t>
-  </si>
-  <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -484,13 +457,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,16 +536,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,16 +618,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,16 +700,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,10 +782,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>145</c:v>
@@ -897,7 +870,7 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180</c:v>
@@ -936,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294552624"/>
-        <c:axId val="294553184"/>
+        <c:axId val="223154656"/>
+        <c:axId val="223155216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294552624"/>
+        <c:axId val="223154656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -998,13 +971,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294553184"/>
+        <c:crossAx val="223155216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294553184"/>
+        <c:axId val="223155216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1063,7 +1036,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294552624"/>
+        <c:crossAx val="223154656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1237,10 +1210,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1316,16 +1289,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,10 +1371,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -1568,7 +1541,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -1607,11 +1580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294558224"/>
-        <c:axId val="294558784"/>
+        <c:axId val="286062016"/>
+        <c:axId val="286062576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294558224"/>
+        <c:axId val="286062016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1669,13 +1642,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294558784"/>
+        <c:crossAx val="286062576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294558784"/>
+        <c:axId val="286062576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1734,7 +1707,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294558224"/>
+        <c:crossAx val="286062016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1799,7 +1772,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1883,13 +1855,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,16 +1926,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,16 +2008,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,16 +2090,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,10 +2172,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>145</c:v>
@@ -2288,7 +2260,7 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180</c:v>
@@ -2327,11 +2299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294564384"/>
-        <c:axId val="294564944"/>
+        <c:axId val="286068176"/>
+        <c:axId val="286068736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294564384"/>
+        <c:axId val="286068176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,12 +2360,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294564944"/>
+        <c:crossAx val="286068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294564944"/>
+        <c:axId val="286068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2422,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294564384"/>
+        <c:crossAx val="286068176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4172,14 +4144,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>4931</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>584051</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4201,16 +4173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704177</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>567466</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177949</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4556,10 +4528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4569,6 +4541,7 @@
     <col min="3" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4802,21 +4775,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -4830,7 +4803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -4844,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4852,75 +4825,75 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E25">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C26">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D26">
         <v>145</v>
@@ -4929,7 +4902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4940,13 +4913,13 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -4954,7 +4927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4968,7 +4941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -4976,30 +4949,31 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5007,10 +4981,10 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>45</v>
@@ -5047,7 +5021,7 @@
         <v>85</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -5074,27 +5048,31 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ref="C40:E40" si="0">DEC2HEX( (255*C22/190))</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>7F</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>72</v>
-      </c>
-      <c r="J40">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="G40" t="str">
+        <f>B40</f>
+        <v>D</v>
+      </c>
+      <c r="H40" t="str">
+        <f>DEC2HEX((255+(((HEX2DEC(C40))-(HEX2DEC(B40)))/2))/((HEX2DEC(C40))-(HEX2DEC(B40))))</f>
+        <v>FF</v>
+      </c>
+      <c r="I40" t="str">
+        <f>D40</f>
+        <v>35</v>
+      </c>
+      <c r="J40" t="str">
+        <f>DEC2HEX((255+(((HEX2DEC(E40))-(HEX2DEC(D40)))/2))/((HEX2DEC(E40))-(HEX2DEC(D40))))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5103,30 +5081,34 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ref="B41:E45" si="1">DEC2HEX( (255*B23/190))</f>
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>7F</v>
+        <v>43</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>8C</v>
+        <v>5D</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
-        <v>9A</v>
-      </c>
-      <c r="G41">
-        <v>72</v>
-      </c>
-      <c r="H41">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41">
+        <v>6B</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ref="G41:G51" si="2">B41</f>
+        <v>35</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ref="H41:H51" si="3">DEC2HEX((255+(((HEX2DEC(C41))-(HEX2DEC(B41)))/2))/((HEX2DEC(C41))-(HEX2DEC(B41))))</f>
+        <v>12</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" ref="I41:I51" si="4">D41</f>
+        <v>5D</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ref="J41:J51" si="5">DEC2HEX((255+(((HEX2DEC(E41))-(HEX2DEC(D41)))/2))/((HEX2DEC(E41))-(HEX2DEC(D41))))</f>
         <v>12</v>
       </c>
     </row>
@@ -5136,31 +5118,35 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>8C</v>
+        <v>5D</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>9A</v>
+        <v>6B</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
-        <v>A7</v>
+        <v>86</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
-        <v>B5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42">
+        <v>93</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>5D</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42">
-        <v>12</v>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,30 +5155,34 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>A7</v>
+        <v>86</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>B5</v>
+        <v>93</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>B5</v>
+        <v>A1</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
-        <v>C2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43">
+        <v>AE</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>A1</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -5202,11 +5192,11 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>B5</v>
+        <v>A1</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>C2</v>
+        <v>AE</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -5216,16 +5206,20 @@
         <f t="shared" si="1"/>
         <v>D0</v>
       </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44">
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>C2</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -5243,23 +5237,27 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>F1</v>
+        <v>F0</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
         <v>F1</v>
       </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>F0</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>FF</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5271,28 +5269,32 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:E47" si="2">DEC2HEX( (255*C32/100))</f>
-        <v>0</v>
+        <f t="shared" ref="C47:E47" si="6">DEC2HEX( (255*C32/100))</f>
+        <v>2</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>41</v>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5300,32 +5302,36 @@
         <v>15</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:E48" si="3">DEC2HEX( (255*B33/100))</f>
-        <v>0</v>
+        <f t="shared" ref="B48:E48" si="7">DEC2HEX( (255*B33/100))</f>
+        <v>C</v>
       </c>
       <c r="C48" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="7"/>
+        <v>3F</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
         <v>15</v>
-      </c>
-      <c r="I48">
-        <v>19</v>
-      </c>
-      <c r="J48">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5333,32 +5339,36 @@
         <v>16</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:E49" si="4">DEC2HEX( (255*B34/100))</f>
-        <v>19</v>
+        <f t="shared" ref="B49:E49" si="8">DEC2HEX( (255*B34/100))</f>
+        <v>33</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>3F</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="8"/>
+        <v>8C</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="D49" t="str">
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="4"/>
-        <v>8C</v>
-      </c>
-      <c r="G49">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49">
-        <v>72</v>
-      </c>
-      <c r="J49" t="s">
-        <v>41</v>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5366,32 +5376,36 @@
         <v>17</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" ref="B50:E50" si="5">DEC2HEX( (255*B35/100))</f>
+        <f t="shared" ref="B50:E50" si="9">DEC2HEX( (255*B35/100))</f>
         <v>72</v>
       </c>
       <c r="C50" t="str">
+        <f t="shared" si="9"/>
+        <v>8C</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="9"/>
+        <v>BF</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="9"/>
+        <v>D8</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
+        <v>BF</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="5"/>
-        <v>8C</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="5"/>
-        <v>BF</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="5"/>
-        <v>D8</v>
-      </c>
-      <c r="G50">
-        <v>72</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s">
-        <v>41</v>
+        <v>A</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5399,37 +5413,41 @@
         <v>18</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" ref="B51:E51" si="6">DEC2HEX( (255*B36/100))</f>
+        <f t="shared" ref="B51:E51" si="10">DEC2HEX( (255*B36/100))</f>
         <v>BF</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>D8</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
+        <v>FC</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="10"/>
         <v>FF</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="6"/>
-        <v>FF</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>BF</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="4"/>
+        <v>FC</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5470,7 +5488,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>Principal!$C$22</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5479,7 +5497,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>Principal!$D$22</f>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5488,7 +5506,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>Principal!$E$22</f>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5508,7 +5526,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>Principal!$B$23</f>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5517,7 +5535,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>Principal!$C$23</f>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5526,7 +5544,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>Principal!$D$23</f>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5535,7 +5553,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>Principal!$E$23</f>
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5555,7 +5573,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>Principal!$B$24</f>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5564,7 +5582,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>Principal!$C$24</f>
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5573,7 +5591,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>Principal!$D$24</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5582,7 +5600,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <f>Principal!$E$24</f>
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5602,7 +5620,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>Principal!$B$25</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5611,7 +5629,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>Principal!$C$25</f>
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5620,7 +5638,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>Principal!$D$25</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5629,7 +5647,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>Principal!$E$25</f>
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5649,7 +5667,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>Principal!$B$26</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5658,7 +5676,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>Principal!$C$26</f>
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5714,7 +5732,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <f>Principal!$D$27</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36">
         <v>1</v>

--- a/Documentation/Fuzzy/Fuzzy Table.xlsx
+++ b/Documentation/Fuzzy/Fuzzy Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
   <si>
     <t>2 Entradas:</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>asi que lo offseteo con +50 para fuzzy</t>
+  </si>
+  <si>
+    <t>Expandidos en decimal</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
@@ -536,10 +539,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70</c:v>
@@ -618,10 +621,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
@@ -700,10 +703,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
@@ -782,10 +785,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>145</c:v>
@@ -864,13 +867,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180</c:v>
@@ -909,11 +912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223154656"/>
-        <c:axId val="223155216"/>
+        <c:axId val="236416224"/>
+        <c:axId val="236416784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223154656"/>
+        <c:axId val="236416224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -971,13 +974,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223155216"/>
+        <c:crossAx val="236416784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223155216"/>
+        <c:axId val="236416784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1036,7 +1039,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223154656"/>
+        <c:crossAx val="236416224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1213,7 +1216,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1292,7 +1295,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
@@ -1371,10 +1374,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -1453,10 +1456,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75</c:v>
@@ -1535,10 +1538,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99</c:v>
@@ -1580,11 +1583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286062016"/>
-        <c:axId val="286062576"/>
+        <c:axId val="236421824"/>
+        <c:axId val="236422384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286062016"/>
+        <c:axId val="236421824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1642,13 +1645,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286062576"/>
+        <c:crossAx val="236422384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286062576"/>
+        <c:axId val="236422384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1707,7 +1710,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286062016"/>
+        <c:crossAx val="236421824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1852,10 +1855,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
@@ -1926,10 +1929,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70</c:v>
@@ -2008,10 +2011,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
@@ -2090,10 +2093,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
@@ -2172,10 +2175,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>145</c:v>
@@ -2254,13 +2257,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180</c:v>
@@ -2299,11 +2302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286068176"/>
-        <c:axId val="286068736"/>
+        <c:axId val="308233024"/>
+        <c:axId val="308233584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286068176"/>
+        <c:axId val="308233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,12 +2363,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286068736"/>
+        <c:crossAx val="308233584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286068736"/>
+        <c:axId val="308233584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2425,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286068176"/>
+        <c:crossAx val="308233024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4528,10 +4531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,10 +4825,10 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -4839,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>70</v>
@@ -4856,10 +4859,10 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -4873,10 +4876,10 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -4890,10 +4893,10 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D26">
         <v>145</v>
@@ -4907,13 +4910,13 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C27">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D27">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27">
         <v>180</v>
@@ -4952,14 +4955,14 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>20</v>
@@ -4976,15 +4979,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>45</v>
@@ -4993,15 +4996,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>75</v>
@@ -5010,15 +5013,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>99</v>
@@ -5027,7 +5030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5037,18 +5040,21 @@
       <c r="G38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="str">
         <f>DEC2HEX( (255*B22/190))</f>
-        <v>D</v>
+        <v>0</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ref="C40:E40" si="0">DEC2HEX( (255*C22/190))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -5060,11 +5066,11 @@
       </c>
       <c r="G40" t="str">
         <f>B40</f>
-        <v>D</v>
+        <v>0</v>
       </c>
       <c r="H40" t="str">
         <f>DEC2HEX((255+(((HEX2DEC(C40))-(HEX2DEC(B40)))/2))/((HEX2DEC(C40))-(HEX2DEC(B40))))</f>
-        <v>FF</v>
+        <v>40</v>
       </c>
       <c r="I40" t="str">
         <f>D40</f>
@@ -5074,193 +5080,289 @@
         <f>DEC2HEX((255+(((HEX2DEC(E40))-(HEX2DEC(D40)))/2))/((HEX2DEC(E40))-(HEX2DEC(D40))))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>(255*B22/190)</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:O40" si="1">(255*C22/190)</f>
+        <v>4.0263157894736841</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>53.684210526315788</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>67.10526315789474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:E45" si="1">DEC2HEX( (255*B23/190))</f>
-        <v>35</v>
+        <f t="shared" ref="B41:E45" si="2">DEC2HEX( (255*B23/190))</f>
+        <v>2E</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>3C</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5D</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6B</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ref="G41:G51" si="2">B41</f>
-        <v>35</v>
+        <f t="shared" ref="G41:G51" si="3">B41</f>
+        <v>2E</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ref="H41:H51" si="3">DEC2HEX((255+(((HEX2DEC(C41))-(HEX2DEC(B41)))/2))/((HEX2DEC(C41))-(HEX2DEC(B41))))</f>
+        <f t="shared" ref="H41:H51" si="4">DEC2HEX((255+(((HEX2DEC(C41))-(HEX2DEC(B41)))/2))/((HEX2DEC(C41))-(HEX2DEC(B41))))</f>
         <v>12</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" ref="I41:I51" si="4">D41</f>
+        <f t="shared" ref="I41:I51" si="5">D41</f>
         <v>5D</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ref="J41:J51" si="5">DEC2HEX((255+(((HEX2DEC(E41))-(HEX2DEC(D41)))/2))/((HEX2DEC(E41))-(HEX2DEC(D41))))</f>
+        <f t="shared" ref="J41:J51" si="6">DEC2HEX((255+(((HEX2DEC(E41))-(HEX2DEC(D41)))/2))/((HEX2DEC(E41))-(HEX2DEC(D41))))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f t="shared" ref="L41:L45" si="7">(255*B23/190)</f>
+        <v>46.973684210526315</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M45" si="8">(255*C23/190)</f>
+        <v>60.39473684210526</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N45" si="9">(255*D23/190)</f>
+        <v>93.94736842105263</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O45" si="10">(255*E23/190)</f>
+        <v>107.36842105263158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>5D</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>6B</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v>5D</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>87.236842105263165</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>100.65789473684211</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>134.21052631578948</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>147.63157894736841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>7F</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>8C</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A1</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AE</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>7F</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A1</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>127.5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>140.92105263157896</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>161.05263157894737</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>174.47368421052633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>A1</v>
+        <f t="shared" si="2"/>
+        <v>9A</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>AE</v>
+        <f t="shared" si="2"/>
+        <v>A7</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D0</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v>A1</v>
+        <f t="shared" si="3"/>
+        <v>9A</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>154.34210526315789</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="8"/>
+        <v>167.76315789473685</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>194.60526315789474</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>208.02631578947367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>C2</v>
+        <f t="shared" si="2"/>
+        <v>B5</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>D0</v>
+        <f t="shared" si="2"/>
+        <v>C9</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>F0</v>
+        <f t="shared" si="2"/>
+        <v>EE</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F1</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="2"/>
-        <v>C2</v>
+        <f t="shared" si="3"/>
+        <v>B5</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>D</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="4"/>
-        <v>F0</v>
+        <f t="shared" si="5"/>
+        <v>EE</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="5"/>
-        <v>FF</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>181.18421052631578</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="8"/>
+        <v>201.31578947368422</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>238.89473684210526</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>241.57894736842104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -5269,180 +5371,260 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:E47" si="6">DEC2HEX( (255*C32/100))</f>
+        <f t="shared" ref="C47:E47" si="11">DEC2HEX( (255*C32/100))</f>
         <v>2</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="6"/>
+        <v>1A</v>
+      </c>
+      <c r="L47">
+        <f xml:space="preserve"> (255*B32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47:O47" si="12" xml:space="preserve"> (255*C32/100)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="12"/>
+        <v>15.3</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="12"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" ref="B48:E48" si="13">DEC2HEX( (255*B33/100))</f>
         <v>C</v>
       </c>
-      <c r="E47" t="str">
+      <c r="C48" t="str">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="13"/>
+        <v>3F</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H47" t="str">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L51" si="14" xml:space="preserve"> (255*B33/100)</f>
+        <v>12.75</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M51" si="15" xml:space="preserve"> (255*C33/100)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N51" si="16" xml:space="preserve"> (255*D33/100)</f>
+        <v>51</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O51" si="17" xml:space="preserve"> (255*E33/100)</f>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" ref="B49:E49" si="18">DEC2HEX( (255*B34/100))</f>
+        <v>2D</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="18"/>
+        <v>3A</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="18"/>
+        <v>8C</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="I47" t="str">
+        <v>2D</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="14"/>
+        <v>45.9</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="15"/>
+        <v>58.65</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="16"/>
+        <v>114.75</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="17"/>
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:E50" si="19">DEC2HEX( (255*B35/100))</f>
+        <v>6B</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="19"/>
+        <v>84</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="19"/>
+        <v>BF</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="19"/>
+        <v>D8</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>6B</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="5"/>
+        <v>BF</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="14"/>
+        <v>107.1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="15"/>
+        <v>132.6</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="16"/>
+        <v>191.25</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="17"/>
+        <v>216.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" ref="B51:E51" si="20">DEC2HEX( (255*B36/100))</f>
+        <v>B7</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="20"/>
+        <v>CC</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="20"/>
+        <v>FC</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="20"/>
+        <v>FF</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>B7</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
-      <c r="J47" t="str">
+      <c r="I51" t="str">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" ref="B48:E48" si="7">DEC2HEX( (255*B33/100))</f>
-        <v>C</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="7"/>
-        <v>3F</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" ref="B49:E49" si="8">DEC2HEX( (255*B34/100))</f>
-        <v>33</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="8"/>
-        <v>3F</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="8"/>
-        <v>8C</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" ref="B50:E50" si="9">DEC2HEX( (255*B35/100))</f>
-        <v>72</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="9"/>
-        <v>8C</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="9"/>
-        <v>BF</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="9"/>
-        <v>D8</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="4"/>
-        <v>BF</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" ref="B51:E51" si="10">DEC2HEX( (255*B36/100))</f>
-        <v>BF</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="10"/>
-        <v>D8</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="10"/>
         <v>FC</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="10"/>
-        <v>FF</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v>BF</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="4"/>
-        <v>FC</v>
-      </c>
       <c r="J51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="14"/>
+        <v>183.6</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="16"/>
+        <v>252.45</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="17"/>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5661,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>Principal!$B$22</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5488,7 +5670,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>Principal!$C$22</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5526,7 +5708,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>Principal!$B$23</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5535,7 +5717,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>Principal!$C$23</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5573,7 +5755,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>Principal!$B$24</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5582,7 +5764,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>Principal!$C$24</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5620,7 +5802,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>Principal!$B$25</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5629,7 +5811,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>Principal!$C$25</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5667,7 +5849,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>Principal!$B$26</f>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5676,7 +5858,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>Principal!$C$26</f>
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5714,7 +5896,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <f>Principal!$B$27</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5723,7 +5905,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <f>Principal!$C$27</f>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5732,7 +5914,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <f>Principal!$D$27</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36">
         <v>1</v>
